--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>Có thể boost lúc query và index</t>
+  </si>
+  <si>
+    <t>rich query syntax</t>
+  </si>
+  <si>
+    <t>Smashing AND Pumpkins
++Smashing +Pumpkins
+Smashing || Pumpkins
+Smashing NOT Atoms
+(Smashing AND Pumpkins) OR (Green AND Day)
+Smashing (-Pumpkins *:*)
+sma*ing, sma??*</t>
+  </si>
+  <si>
+    <t>Kết hợp toán tử boolean(and, or, not). Mặc định là or
+Sub-expressions
+Wildcard queries
+Fuzzy queries</t>
   </si>
 </sst>
 </file>
@@ -633,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,25 +683,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="30">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="120">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" s="10" customFormat="1">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11" t="s">
@@ -693,163 +709,178 @@
     </row>
     <row r="4" spans="1:5" s="10" customFormat="1">
       <c r="A4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="300">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="300">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" ht="45">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" ht="120">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" ht="120">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="180">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:5" ht="180">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" ht="237.75" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -260,10 +260,20 @@
 sma*ing, sma??*</t>
   </si>
   <si>
+    <t>rich Query parameters</t>
+  </si>
+  <si>
     <t>Kết hợp toán tử boolean(and, or, not). Mặc định là or
 Sub-expressions
 Wildcard queries
-Fuzzy queries</t>
+Fuzzy queries
+Range queries
+Date math.
+Score boosting
+Escaping special characters</t>
+  </si>
+  <si>
+    <t>Result paging, sort, debugQuery, version, writer type,…</t>
   </si>
 </sst>
 </file>
@@ -651,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,36 +693,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="120">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="120">
+      <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="30">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11" t="s">
@@ -722,10 +727,10 @@
     </row>
     <row r="5" spans="1:5" s="10" customFormat="1">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="11" t="s">
@@ -733,154 +738,167 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="300">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" s="10" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="300">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60">
       <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" ht="120">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" ht="120">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="180">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="180">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:5" ht="237.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>HighLight</t>
   </si>
   <si>
     <r>
@@ -86,25 +83,16 @@
     <t>Cần nắm rõ các tham số config khi sử dụng</t>
   </si>
   <si>
-    <t>Query Elevation</t>
-  </si>
-  <si>
     <t>Có thể</t>
   </si>
   <si>
     <t>query text="corgan" nên khi tìm kiếm chuỗi "billy corgan" thì ko ảnh hưởng bởi cấu hình này.</t>
   </si>
   <si>
-    <t>Spell Checking</t>
-  </si>
-  <si>
     <t>Kiểm tra lỗi chính tả nhờ một bộ từ điển được tham chiếu trong file config</t>
   </si>
   <si>
     <t>Chưa</t>
-  </si>
-  <si>
-    <t>More like this</t>
   </si>
   <si>
     <t>Ví dụ: tìm kiếm bản nhạc "The End Is the Beginning Is the End" ngoài kết quả trả về. thì more like this còn trả response gồm nhiều doc có score thõa mãn yêu cầu.
@@ -129,25 +117,7 @@
     &lt;/doc&gt;...</t>
   </si>
   <si>
-    <t>Stats</t>
-  </si>
-  <si>
     <t>dùng để thống kê 1 field nào đó</t>
-  </si>
-  <si>
-    <t>Field collapsing</t>
-  </si>
-  <si>
-    <t>Giống câu truy vấn group by trong sql. Gom nhóm các Field có cùng giá trị</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>TermVector</t>
-  </si>
-  <si>
-    <t>LocalSolr</t>
   </si>
   <si>
     <t>Chưa dùng tới</t>
@@ -181,17 +151,155 @@
     <t>Tên Componant</t>
   </si>
   <si>
-    <t>Faceting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đưa ra một số thông tin có liên quan đến kết quả tìm kiếm dưới dạng các link. 
 Đây là các thông tin tổng thể được tổng hợp từ tất cả các document.
 Có chức năng suggest tạo từ khóa chính xác </t>
   </si>
   <si>
+    <t>upgrade cái suggest từ trong tiếng Việt</t>
+  </si>
+  <si>
+    <t>Tìm kiếm trên nhiều field với boost khác nhau để đưa ra kết quả tốt nhất
+Tự động boost cho mệnh đề được search</t>
+  </si>
+  <si>
+    <t>Gồm tập hợp các hàm tính toán score để đưa ra kết quả tốt nhất</t>
+  </si>
+  <si>
+    <t>Ví dụ hàm rord(myDateField) sẽ trả ra số "tuổi" của document này
+Document mới  nhất sẽ trả ra 1, document cũ nhất sẽ chính là tổng số document</t>
+  </si>
+  <si>
+    <t>Sắp xếp kết quả trả về theo các tham số khác nhau, 
+mặc định là sx theo score giảm dần</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá kết quả trả về</t>
+  </si>
+  <si>
+    <t>Có thể boost lúc query và index</t>
+  </si>
+  <si>
+    <t>Chương</t>
+  </si>
+  <si>
+    <t>Giống câu truy vấn group by trong sql. Gom nhóm các Field có cùng giá trị, bo dữ liệu trùng(Version 1.5)</t>
+  </si>
+  <si>
+    <t>Chương 4: Basic Searching</t>
+  </si>
+  <si>
+    <t>Parameters affecting the query</t>
+  </si>
+  <si>
+    <t>Result paging</t>
+  </si>
+  <si>
+    <t>Output related parameters</t>
+  </si>
+  <si>
+    <t>Diagnostic query parameters</t>
+  </si>
+  <si>
+    <t>Matching all the documents</t>
+  </si>
+  <si>
+    <t>Mandatory, prohibited, and optional clauses</t>
+  </si>
+  <si>
+    <t>Sub-expressions (aka sub-queries)</t>
+  </si>
+  <si>
+    <t>Field qualifier</t>
+  </si>
+  <si>
+    <t>Phrase queries and term proximity</t>
+  </si>
+  <si>
+    <t>Wildcard queries</t>
+  </si>
+  <si>
+    <t>Range queries</t>
+  </si>
+  <si>
+    <t>Score boosting</t>
+  </si>
+  <si>
+    <t>Escaping special characters</t>
+  </si>
+  <si>
+    <t>Existence (and non-existence) queries</t>
+  </si>
+  <si>
+    <t>Query-time and index-time boosting</t>
+  </si>
+  <si>
+    <t>Troubleshooting scoring</t>
+  </si>
+  <si>
+    <t>Các parameter này dùng để phân trang</t>
+  </si>
+  <si>
+    <t>start: (default: 0), rows: (default: 10)</t>
+  </si>
+  <si>
+    <t>4.1 Query parameters</t>
+  </si>
+  <si>
+    <t>4.2 Query syntax</t>
+  </si>
+  <si>
+    <t>Các parameter này ảnh hưởng tới kết quả truy vấn</t>
+  </si>
+  <si>
+    <t>q (chuỗi truy vấn), 
+q.op (By default, either AND or OR to signify), df: The default feld that will be searched</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả trả về</t>
+  </si>
+  <si>
+    <t>fl: This is the feld list
+sort (default is score desc)
+wt: A reference to the writer type
+Custom output formats</t>
+  </si>
+  <si>
+    <t>Chưa hiểu rõ</t>
+  </si>
+  <si>
+    <t>Lấy hết tất cả các document</t>
+  </si>
+  <si>
+    <t>*:*</t>
+  </si>
+  <si>
+    <t>Kết hợp các mệnh đề trong câu truy vấn, có sử dụng thêm toán tử</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +Smashing,
+ +Smashing Pumpkins
+Smashing Pumpkins -Atoms</t>
+  </si>
+  <si>
+    <t>Dùng dấu ngoặc để chỉ độ ưu tiên</t>
+  </si>
+  <si>
+    <t>(Smashing AND Pumpkins) OR (Green AND Day)
+(+Smashing +Pumpkins) (+Green +Day)</t>
+  </si>
+  <si>
+    <t>Chương 5: Enhanced Searching</t>
+  </si>
+  <si>
+    <t>Sub-componant</t>
+  </si>
+  <si>
+    <t>Chương 6: Search Components</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gõ keyword: siamese dr sẽ được suggest là dreams
-Khi ta facet 2 field "manu" và "camera_type"
-thì kết quả trả về sẽ có thêm những dữ liệu sau:
+Khi ta facet 2 field "manu" và "camera_type". Khi tìm kiếm với từ khóa "camera"thì kết quả trả về sẽ có thêm những dữ liệu sau:
 &lt;lst name="facet_fields"&gt;
           &lt;lst name="manu"&gt;
           &lt;int name="Canon USA"&gt;17&lt;/int&gt;
@@ -209,78 +317,72 @@
 </t>
   </si>
   <si>
-    <t>upgrade cái suggest từ trong tiếng Việt</t>
-  </si>
-  <si>
-    <t>Dismax Solr request handle</t>
-  </si>
-  <si>
-    <t>Tìm kiếm trên nhiều field với boost khác nhau để đưa ra kết quả tốt nhất
-Tự động boost cho mệnh đề được search</t>
-  </si>
-  <si>
-    <t>Function Query</t>
-  </si>
-  <si>
-    <t>Gồm tập hợp các hàm tính toán score để đưa ra kết quả tốt nhất</t>
-  </si>
-  <si>
-    <t>Ví dụ hàm rord(myDateField) sẽ trả ra số "tuổi" của document này
-Document mới  nhất sẽ trả ra 1, document cũ nhất sẽ chính là tổng số document</t>
-  </si>
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>Sắp xếp kết quả trả về theo các tham số khác nhau, 
-mặc định là sx theo score giảm dần</t>
-  </si>
-  <si>
-    <t>Scoring</t>
-  </si>
-  <si>
-    <t>Điểm đánh giá kết quả trả về</t>
-  </si>
-  <si>
-    <t>Boosting</t>
-  </si>
-  <si>
-    <t>Có thể boost lúc query và index</t>
-  </si>
-  <si>
-    <t>rich query syntax</t>
-  </si>
-  <si>
-    <t>Smashing AND Pumpkins
-+Smashing +Pumpkins
-Smashing || Pumpkins
-Smashing NOT Atoms
-(Smashing AND Pumpkins) OR (Green AND Day)
-Smashing (-Pumpkins *:*)
-sma*ing, sma??*</t>
-  </si>
-  <si>
-    <t>rich Query parameters</t>
-  </si>
-  <si>
-    <t>Kết hợp toán tử boolean(and, or, not). Mặc định là or
-Sub-expressions
-Wildcard queries
-Fuzzy queries
-Range queries
-Date math.
-Score boosting
-Escaping special characters</t>
-  </si>
-  <si>
-    <t>Result paging, sort, debugQuery, version, writer type,…</t>
+    <t>5.1 Faceting</t>
+  </si>
+  <si>
+    <t>5.2 Function Query</t>
+  </si>
+  <si>
+    <t>5.3 Dismax Solr request handle</t>
+  </si>
+  <si>
+    <t>6.1 HighLight</t>
+  </si>
+  <si>
+    <t>6.2 Query Elevation</t>
+  </si>
+  <si>
+    <t>6.3 Spell Checking</t>
+  </si>
+  <si>
+    <t>6.4 More like this</t>
+  </si>
+  <si>
+    <t>6.5 Stats</t>
+  </si>
+  <si>
+    <t>6.6 Field collapsing</t>
+  </si>
+  <si>
+    <t>6.7 Term</t>
+  </si>
+  <si>
+    <t>6.8 TermVector</t>
+  </si>
+  <si>
+    <t>6.9 ocalSolr</t>
+  </si>
+  <si>
+    <t>4.3 Filtering</t>
+  </si>
+  <si>
+    <t>4.4 Sorting</t>
+  </si>
+  <si>
+    <t>4.5 Request handlers</t>
+  </si>
+  <si>
+    <t>4.6 Scoring</t>
+  </si>
+  <si>
+    <t>4.7 Boosting</t>
+  </si>
+  <si>
+    <t>Có thể dùng các kí tự đặc biệt trong câu truy vấn
++ - &amp;&amp; || ! ( ) { } [ ] ^ " ~ * ? : \</t>
+  </si>
+  <si>
+    <t>id:"Artist:11650" (escape 11650)</t>
+  </si>
+  <si>
+    <t>chưa hiểu rõ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +411,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -330,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,9 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,6 +493,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,244 +797,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="86.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="86.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="21">
       <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="56.25">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="45">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1">
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="60">
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1">
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1">
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" ht="45">
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1">
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1">
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1">
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B19" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1">
+      <c r="D20" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B23" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1">
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" ht="56.25">
+      <c r="A30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B31" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="300">
+      <c r="C32" s="7"/>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B33" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="C34" s="7"/>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="31.5">
+      <c r="B35" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="C36" s="7"/>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" s="13" customFormat="1" ht="75">
+      <c r="A37" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="120">
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B40" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="180">
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B42" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="53.25" customHeight="1">
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B44" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="237.75" customHeight="1">
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B46" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B48" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="30">
+      <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="120">
-      <c r="A3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="30">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1">
-      <c r="A6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="300">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" ht="120">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="180">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="50" spans="2:6" s="14" customFormat="1" ht="15.75">
+      <c r="B50" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="52" spans="2:6" s="14" customFormat="1" ht="15.75">
+      <c r="B52" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="2:6" ht="30">
+      <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
+      <c r="B54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="F55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F51:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -83,16 +83,10 @@
     <t>Cần nắm rõ các tham số config khi sử dụng</t>
   </si>
   <si>
-    <t>Có thể</t>
-  </si>
-  <si>
     <t>query text="corgan" nên khi tìm kiếm chuỗi "billy corgan" thì ko ảnh hưởng bởi cấu hình này.</t>
   </si>
   <si>
     <t>Kiểm tra lỗi chính tả nhờ một bộ từ điển được tham chiếu trong file config</t>
-  </si>
-  <si>
-    <t>Chưa</t>
   </si>
   <si>
     <t>Ví dụ: tìm kiếm bản nhạc "The End Is the Beginning Is the End" ngoài kết quả trả về. thì more like this còn trả response gồm nhiều doc có score thõa mãn yêu cầu.
@@ -120,9 +114,6 @@
     <t>dùng để thống kê 1 field nào đó</t>
   </si>
   <si>
-    <t>Chưa dùng tới</t>
-  </si>
-  <si>
     <t>Hiển thị thông tin 1 term được index, vd tần số xuất hiện</t>
   </si>
   <si>
@@ -174,12 +165,6 @@
 mặc định là sx theo score giảm dần</t>
   </si>
   <si>
-    <t>Điểm đánh giá kết quả trả về</t>
-  </si>
-  <si>
-    <t>Có thể boost lúc query và index</t>
-  </si>
-  <si>
     <t>Chương</t>
   </si>
   <si>
@@ -263,9 +248,6 @@
 sort (default is score desc)
 wt: A reference to the writer type
 Custom output formats</t>
-  </si>
-  <si>
-    <t>Chưa hiểu rõ</t>
   </si>
   <si>
     <t>Lấy hết tất cả các document</t>
@@ -365,9 +347,6 @@
     <t>4.6 Scoring</t>
   </si>
   <si>
-    <t>4.7 Boosting</t>
-  </si>
-  <si>
     <t>Có thể dùng các kí tự đặc biệt trong câu truy vấn
 + - &amp;&amp; || ! ( ) { } [ ] ^ " ~ * ? : \</t>
   </si>
@@ -375,7 +354,98 @@
     <t>id:"Artist:11650" (escape 11650)</t>
   </si>
   <si>
-    <t>chưa hiểu rõ</t>
+    <t>Ver 1.5</t>
+  </si>
+  <si>
+    <t>Chọn querypaser</t>
+  </si>
+  <si>
+    <t>vd: DisjunctionMax parser</t>
+  </si>
+  <si>
+    <t>a_member_name:Corgan
++a_member_name:Billy + a_member_name:Corgan
+a_member_name:(+Billy +Corgan)</t>
+  </si>
+  <si>
+    <t>"Billy Corgan": muốn tìm kiếm chính xác cụm từ bỏ trong dấu nháy ""
+"Billy Corgan"~3: Tìm kiếm sao cho không có quá 3 tiếng chèn giữa Billy và Corgan</t>
+  </si>
+  <si>
+    <t>Kế thừa từ lucene</t>
+  </si>
+  <si>
+    <t>* thay thế cho 1 hay nhiều ký tự
+? Thay thế cho 1 ký tự</t>
+  </si>
+  <si>
+    <t>Fuzzy Query</t>
+  </si>
+  <si>
+    <t>Smashing~0.7 tìm kiếm các từ có khoảng cách nhỏ hơn hoặc bằng 0.7 so với Smashing</t>
+  </si>
+  <si>
+    <t>Kế thừ từ lucene. Tìm kiếm theo 1 khoảng</t>
+  </si>
+  <si>
+    <t>t_duration:[300000 TO *]</t>
+  </si>
+  <si>
+    <t>Date Match</t>
+  </si>
+  <si>
+    <t>r_event_date:[* TO NOW-2YEAR]</t>
+  </si>
+  <si>
+    <t>Tăng giảm score</t>
+  </si>
+  <si>
+    <t>a_member_name:Billy^2 OR Smashing: Ưu tiên Billy hơn Smashing
++Billy Bob Corgan^0.7: Corgan ít quan trọng hơn 2 từ khóa còn lại</t>
+  </si>
+  <si>
+    <t>Tìm kiếm văn bản mà 1 field của nó hay không có giá trị (null, empty)</t>
+  </si>
+  <si>
+    <t>a_name:[* TO *]: Tìm tất cả các doc mà field a_name có giá trị
+-a_name:[* TO *]: Tìm tất cả các doc mà field a_name không có giá trị</t>
+  </si>
+  <si>
+    <t>+Green +type:Artist -a_type:1</t>
+  </si>
+  <si>
+    <t>Config QueryType. Có thể định nghĩa nhiều qt.(field cần search, số kết quả trả về...)</t>
+  </si>
+  <si>
+    <t>Tính toán score(tf, idf, coord, fieldNorm)</t>
+  </si>
+  <si>
+    <t>dùng cho admin</t>
+  </si>
+  <si>
+    <t>&lt;lst name="stats"&gt;
+    &lt;lst name="stats_fields"&gt;
+        &lt;lst name="t_duration"&gt;
+          &lt;double name="min"&gt;0.0&lt;/double&gt;
+          &lt;double name="max"&gt;36059.0&lt;/double&gt;
+          &lt;double name="sum"&gt;1.543289275E9&lt;/double&gt;
+          &lt;long name="count"&gt;6977765&lt;/long&gt;
+          &lt;long name="missing"&gt;0&lt;/long&gt;
+          &lt;double name="sumOfSquares"&gt;5.21546498201E11&lt;/double&gt;
+          &lt;double name="mean"&gt;221.1724348699046&lt;/double&gt;
+          &lt;double name="stddev"&gt;160.70724790290328&lt;/double&gt;
+        &lt;/lst&gt;
+    &lt;/lst&gt;
+&lt;/lst&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> third party search component. Tìm kiếm lân cận</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>chưa</t>
   </si>
 </sst>
 </file>
@@ -460,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,33 +866,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46" style="4" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="86.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="21">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
@@ -839,7 +906,7 @@
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>4</v>
@@ -847,235 +914,251 @@
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1">
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" ht="60">
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1">
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1">
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C11" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" ht="30">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="11" customFormat="1" ht="60">
       <c r="C13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1">
+        <v>33</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1">
+        <v>82</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C15" s="11" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1">
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="30">
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" ht="30">
+        <v>86</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="60">
       <c r="C18" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="15.75">
-      <c r="B19" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="60">
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="30">
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" ht="30">
-      <c r="D22" s="11" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1">
+      <c r="E22" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B23" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1">
-      <c r="C24" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="D24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="15.75">
-      <c r="B26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B25" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="30">
+      <c r="D26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="15.75">
+      <c r="B27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1">
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="15.75">
-      <c r="B28" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>4</v>
-      </c>
+    <row r="28" spans="1:7" s="9" customFormat="1">
+      <c r="C28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1">
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="C29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="56.25">
       <c r="A30" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>4</v>
@@ -1083,36 +1166,36 @@
     </row>
     <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B31" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="300">
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B33" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60">
       <c r="C34" s="7"/>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -1121,13 +1204,13 @@
     </row>
     <row r="35" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B35" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -1136,12 +1219,12 @@
     </row>
     <row r="37" spans="1:7" s="13" customFormat="1" ht="75">
       <c r="A37" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B38" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="120">
@@ -1157,44 +1240,44 @@
     </row>
     <row r="40" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B40" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="180">
       <c r="D41" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B42" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="53.25" customHeight="1">
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B44" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="237.75" customHeight="1">
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>4</v>
@@ -1202,68 +1285,73 @@
     </row>
     <row r="46" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B46" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="240">
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B48" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="30">
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B50" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>12</v>
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B52" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="15"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="30">
       <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B54" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="15"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="F55" s="15"/>
+      <c r="D55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F51:F55"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -332,9 +332,6 @@
     <t>6.8 TermVector</t>
   </si>
   <si>
-    <t>6.9 ocalSolr</t>
-  </si>
-  <si>
     <t>4.3 Filtering</t>
   </si>
   <si>
@@ -446,6 +443,15 @@
   </si>
   <si>
     <t>chưa</t>
+  </si>
+  <si>
+    <t>6.9 LocalSolr</t>
+  </si>
+  <si>
+    <t>chưa biết</t>
+  </si>
+  <si>
+    <t>Chưa biết</t>
   </si>
 </sst>
 </file>
@@ -866,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,14 +914,14 @@
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" ht="45">
       <c r="C4" s="11" t="s">
@@ -955,16 +961,19 @@
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B8" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1">
       <c r="C9" s="11" t="s">
@@ -1004,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="11" customFormat="1" ht="60">
@@ -1012,7 +1021,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="11" customFormat="1" ht="30">
@@ -1020,21 +1029,21 @@
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" ht="30">
       <c r="C15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1">
@@ -1042,20 +1051,20 @@
         <v>35</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="11" customFormat="1" ht="60">
@@ -1063,10 +1072,10 @@
         <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1" ht="60">
@@ -1074,10 +1083,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="11" customFormat="1" ht="30">
@@ -1085,25 +1094,28 @@
         <v>37</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B21" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1">
       <c r="E22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>4</v>
@@ -1116,12 +1128,15 @@
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B25" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="30">
       <c r="D26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
@@ -1129,10 +1144,10 @@
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B27" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>4</v>
@@ -1160,16 +1175,16 @@
       <c r="A30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="31" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B31" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="300">
+      <c r="F31" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="285">
       <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -1187,6 +1202,9 @@
     <row r="33" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B33" s="14" t="s">
         <v>60</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60">
@@ -1197,14 +1215,15 @@
       <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
+      <c r="F34"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" s="14" customFormat="1" ht="31.5">
       <c r="B35" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
@@ -1212,9 +1231,7 @@
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
+      <c r="F36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="13" customFormat="1" ht="75">
@@ -1226,13 +1243,13 @@
       <c r="B38" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="120">
+      <c r="F38" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="105">
       <c r="E39" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>5</v>
@@ -1242,6 +1259,9 @@
       <c r="B40" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="F40" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="180">
       <c r="D41" s="5" t="s">
@@ -1250,9 +1270,7 @@
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="2" t="s">
         <v>6</v>
       </c>
@@ -1261,94 +1279,109 @@
       <c r="B42" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="F42" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="53.25" customHeight="1">
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="44" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B44" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="F44" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="237.75" customHeight="1">
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="46" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B46" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="F46" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="240">
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="14" customFormat="1" ht="15.75">
       <c r="B48" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="F48" s="14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="2:6" ht="30">
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B50" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="F50" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B52" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="F52" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="30">
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B54" s="14" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Ví dụ</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>chưa</t>
   </si>
   <si>
     <t>6.9 LocalSolr</t>
@@ -872,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1128,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="30">
@@ -1192,9 +1189,7 @@
       <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60">
@@ -1306,7 +1301,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="240">
@@ -1341,7 +1336,7 @@
         <v>68</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -1357,7 +1352,7 @@
         <v>69</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="30">
@@ -1370,18 +1365,15 @@
     </row>
     <row r="54" spans="2:6" s="14" customFormat="1" ht="15.75">
       <c r="B54" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="D55" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SearchComponents.xlsx
+++ b/SearchComponents.xlsx
@@ -869,15 +869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
